--- a/imageCreationExcel/back/darkyobi/darkyobi_16.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_16.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.48884026723874</v>
+        <v>6.179788683961192</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6575654424922135</v>
+        <v>1.012744940468964</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.087127189777999</v>
+        <v>0.8071412980244265</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_brightness18.0_gamma0.66_contrast1.1.jpg</t>
+          <t>1_E_brightness6.2_contrast1.0_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5517956525636503</v>
+        <v>0.4400582101517249</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.068650051542795</v>
+        <v>1.024097641319617</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.56082409140121</v>
+        <v>5.720633431248816</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_gamma0.55_contrast1.1_equalization12.0.jpg</t>
+          <t>2_T_sharpness0.44_gamma1.0_equalization5.7.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9176781073232345</v>
+        <v>0.9002561487653997</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.757411479237049</v>
+        <v>0.6523481731629629</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7389557143431666</v>
+        <v>29.71358840493504</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_contrast0.92_brightness7.8_gamma0.74.jpg</t>
+          <t>3_7_contrast0.9_gamma0.65_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7885800743570801</v>
+        <v>29.35007746628514</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5339781529216896</v>
+        <v>0.4711843635979223</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9750799505929942</v>
+        <v>0.7391819107495461</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_sharpness0.79_gamma0.53_contrast0.98.jpg</t>
+          <t>4_T_brightness29.0_sharpness0.47_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.597924745797323</v>
+        <v>15.34442633336674</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.514455255398453</v>
+        <v>1.129053522373666</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.4692197451780368</v>
+        <v>0.6498576670292425</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_3_brightness8.6_gamma0.51_sharpness0.47.jpg</t>
+          <t>5_C_brightness15.0_contrast1.1_gamma0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,30 +705,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7398981809341146</v>
+        <v>0.9266795313563764</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.706084013020748</v>
+        <v>0.6251689040144435</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5228590320249645</v>
+        <v>0.9142108587942769</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_sharpness0.74_brightness4.7_gamma0.52.jpg</t>
+          <t>6_P_sharpness0.93_gamma0.63_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -738,24 +738,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7726776167387837</v>
+        <v>0.8098132780873759</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.05870416292647</v>
+        <v>0.944685216002038</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>24.27172466941515</v>
+        <v>23.48307837772696</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_gamma0.77_contrast1.1_equalization24.0.jpg</t>
+          <t>7_1_contrast0.81_gamma0.94_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0411411809256389</v>
+        <v>1.151851523345439</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7521140921889884</v>
+        <v>0.2417395246590839</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10.1575335818424</v>
+        <v>0.8741196643888713</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_sharpness0.041_gamma0.75_equalization10.0.jpg</t>
+          <t>8_I_contrast1.2_sharpness0.24_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9079587827549198</v>
+        <v>0.9889134939480486</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.061882676084605</v>
+        <v>0.8961572731396809</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18.58229335430284</v>
+        <v>24.90264908225117</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_gamma0.91_contrast1.1_equalization19.0.jpg</t>
+          <t>9_0_gamma0.99_contrast0.9_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6304945799748423</v>
+        <v>0.6180780778786965</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8282775065426682</v>
+        <v>1.031387866070674</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20.72638934990037</v>
+        <v>24.61570950802198</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_gamma0.63_sharpness0.83_equalization21.0.jpg</t>
+          <t>10_9_gamma0.62_contrast1.0_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8278930176784942</v>
+        <v>0.9949586221357447</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.028412430195373</v>
+        <v>1.090789764454053</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.893632334160265</v>
+        <v>10.50897620760161</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_0_gamma0.83_contrast1.0_sharpness0.89.jpg</t>
+          <t>11_T_gamma0.99_contrast1.1_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.063868482474783</v>
+        <v>0.8054781852920422</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44672234013947</v>
+        <v>0.6786884909223266</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2262248800614008</v>
+        <v>15.51764512859617</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_contrast1.1_brightness1.4_sharpness0.23.jpg</t>
+          <t>12_I_contrast0.81_gamma0.68_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4879380438431418</v>
+        <v>0.82468828779939</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7801382497616982</v>
+        <v>0.9134478658597172</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>24.79926500478127</v>
+        <v>23.22476480047332</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_T_sharpness0.49_gamma0.78_equalization25.0.jpg</t>
+          <t>13_B_sharpness0.82_gamma0.91_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8035218963423767</v>
+        <v>0.429305161272823</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>27.04441120395893</v>
+        <v>0.9224637174458601</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.6900147445733313</v>
+        <v>8.218719648509932</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_contrast0.8_brightness27.0_gamma0.69.jpg</t>
+          <t>14_9_sharpness0.43_gamma0.92_equalization8.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2016153483097134</v>
+        <v>0.9121765823512468</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.050274808676339</v>
+        <v>1.058586513263671</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12.08395047199766</v>
+        <v>0.9047791783180708</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_sharpness0.2_gamma1.1_equalization12.0.jpg</t>
+          <t>15_T_sharpness0.91_contrast1.1_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8107523469303348</v>
+        <v>1.081313101708196</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8554940103288755</v>
+        <v>0.9725302153402497</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8847973751002342</v>
+        <v>20.3468897820319</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_contrast0.81_sharpness0.86_gamma0.88.jpg</t>
+          <t>16_S_contrast1.1_gamma0.97_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.09581269683823768</v>
+        <v>0.4674889226686385</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9670258034918944</v>
+        <v>0.6223760961992453</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18.2276086201843</v>
+        <v>1.095764963225846</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_sharpness0.096_gamma0.97_equalization18.0.jpg</t>
+          <t>17_P_sharpness0.47_gamma0.62_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7159972106906629</v>
+        <v>0.120305208167094</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.088294903282401</v>
+        <v>5.443266712840424</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16.81822444074477</v>
+        <v>0.7040363449564021</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_gamma0.72_contrast1.1_equalization17.0.jpg</t>
+          <t>18_I_sharpness0.12_brightness5.4_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.190976805642131</v>
+        <v>0.9243693791494971</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>21.37625258348124</v>
+        <v>0.8776846036621642</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9281983821719504</v>
+        <v>25.93352023930983</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_sharpness0.19_brightness21.0_contrast0.93.jpg</t>
+          <t>19_I_gamma0.92_contrast0.88_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.479220089545988</v>
+        <v>1.064583258179048</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5870822708896732</v>
+        <v>0.2136642834126239</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9663590816227002</v>
+        <v>18.36301227408981</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_brightness2.5_gamma0.59_contrast0.97.jpg</t>
+          <t>20_9_contrast1.1_sharpness0.21_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1331,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.155582283570448</v>
+        <v>0.1390399564348372</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.027817425430303</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>9.227373780207872</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H22" t="n">
-        <v>0.8778647855474104</v>
+        <v>19.96118535543313</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_C_contrast1.2_brightness9.2_gamma0.88.jpg</t>
+          <t>21_C_sharpness0.14_gamma1.0_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7353196141061238</v>
+        <v>1.003693766625747</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.025971564093898</v>
+        <v>0.7727937056242473</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9.188857948675313</v>
+        <v>15.79282468891818</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_gamma0.74_contrast1.0_equalization9.2.jpg</t>
+          <t>22_9_contrast1.0_gamma0.77_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9212548026021177</v>
+        <v>0.6825939041401684</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20.71408157686012</v>
+        <v>4.155638151106457</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.083412880119444</v>
+        <v>0.08354473769396631</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_contrast0.92_brightness21.0_gamma1.1.jpg</t>
+          <t>23_3_gamma0.68_brightness4.2_sharpness0.084.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.178597946417836</v>
+        <v>0.5351857591192325</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13.18385802142977</v>
+        <v>1.110751760182714</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6015637508548071</v>
+        <v>0.6778002552926328</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_contrast1.2_brightness13.0_gamma0.6.jpg</t>
+          <t>24_7_sharpness0.54_contrast1.1_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.042502774062343</v>
+        <v>0.8951037193350497</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7925604143811444</v>
+        <v>18.01596697036228</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>29.83568239824886</v>
+        <v>0.9426008772316332</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_I_contrast1.0_gamma0.79_equalization30.0.jpg</t>
+          <t>25_7_contrast0.9_brightness18.0_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8942247359407886</v>
+        <v>26.11745805886326</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6755535277265232</v>
+        <v>1.03019738697205</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>30.15886579757125</v>
+        <v>0.8565623557843202</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_contrast0.89_gamma0.68_equalization30.0.jpg</t>
+          <t>26_P_brightness26.0_gamma1.0_sharpness0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.82933130935375</v>
+        <v>1.046969942610733</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8646391720713555</v>
+        <v>0.5556127932157301</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.6914957350620691</v>
+        <v>11.3537072496948</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_brightness13.0_contrast0.86_gamma0.69.jpg</t>
+          <t>27_E_contrast1.0_gamma0.56_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5624527362262395</v>
+        <v>9.820085218600454</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.054267676162973</v>
+        <v>0.03416341655138067</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14.02647644209348</v>
+        <v>0.8265984638591312</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_sharpness0.56_contrast1.1_equalization14.0.jpg</t>
+          <t>28_7_brightness9.8_sharpness0.034_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6518298889217147</v>
+        <v>1.163795997586738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.4884647600857646</v>
+        <v>10.73520751604774</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.647503324172904</v>
+        <v>0.9886780415451464</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_gamma0.65_sharpness0.49_brightness8.6.jpg</t>
+          <t>29_2_contrast1.2_brightness11.0_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7105954291616372</v>
+        <v>28.14993424965725</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.467018679554458</v>
+        <v>0.9311455942706518</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.146359335676963</v>
+        <v>0.9498874334190927</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_gamma0.71_brightness2.5_contrast1.1.jpg</t>
+          <t>30_9_brightness28.0_sharpness0.93_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.09974732271633</v>
+        <v>0.9421444562265302</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8196724251440868</v>
+        <v>0.04428814394191383</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>28.05181048162155</v>
+        <v>24.16953096222882</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_I_gamma1.1_sharpness0.82_equalization28.0.jpg</t>
+          <t>31_9_contrast0.94_sharpness0.044_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8015155687653988</v>
+        <v>0.841075340545268</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.995788975113998</v>
+        <v>1.064083788410098</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.056766826368328</v>
+        <v>5.386572747316282</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_sharpness0.8_brightness2.0_gamma1.1.jpg</t>
+          <t>32_8_sharpness0.84_contrast1.1_equalization5.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7413977179388883</v>
+        <v>0.8305992095152259</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.931765464075424</v>
+        <v>19.75156851816</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7.020840605161972</v>
+        <v>0.9299069057752736</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_gamma0.74_contrast0.93_equalization7.0.jpg</t>
+          <t>33_C_contrast0.83_brightness20.0_gamma0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7272914125853038</v>
+        <v>1.116460941413159</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7621475433495917</v>
+        <v>0.6382576888370861</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15.4458532627931</v>
+        <v>17.0880449967627</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_sharpness0.73_gamma0.76_equalization15.0.jpg</t>
+          <t>34_I_contrast1.1_gamma0.64_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.01373113861487107</v>
+        <v>0.7718995495495498</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6678992677499898</v>
+        <v>1.140663253987311</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>16.04882943092166</v>
+        <v>0.306500772130214</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_9_sharpness0.014_gamma0.67_equalization16.0.jpg</t>
+          <t>35_1_gamma0.77_contrast1.1_sharpness0.31.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.03247600846818</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>24.94694235347567</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F37" t="n">
-        <v>0.7884909935243266</v>
+        <v>9.899750708553835</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.0752670281692</v>
+        <v>0.7325488121381065</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness25.0_sharpness0.79_gamma1.1.jpg</t>
+          <t>36_8_contrast1.0_brightness9.9_gamma0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.003420114711089</v>
+        <v>0.656581716586464</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.169652927560183</v>
+        <v>0.9357488443522944</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5972516760956658</v>
+        <v>16.49313242082287</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_contrast1.0_brightness4.2_gamma0.6.jpg</t>
+          <t>37_3_gamma0.66_contrast0.94_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,30 +2049,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.077613662188624</v>
+        <v>0.9882627566693181</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.848976918892734</v>
+        <v>22.56149407357873</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16.75936426504866</v>
+        <v>0.5068915371556539</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_gamma1.1_contrast0.85_equalization17.0.jpg</t>
+          <t>38_P_gamma0.99_brightness23.0_sharpness0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>14.65897634390013</v>
+        <v>0.9141192695720299</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.979985950686256</v>
+        <v>0.2432560143528159</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.832465942675668</v>
+        <v>14.08823654416931</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_brightness15.0_gamma0.98_contrast0.83.jpg</t>
+          <t>39_7_gamma0.91_sharpness0.24_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.131819314373695</v>
+        <v>0.8527992192510893</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3384321263145386</v>
+        <v>0.8633235135236168</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.11233876936542</v>
+        <v>6.617365212391526</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_contrast1.1_sharpness0.34_brightness6.1.jpg</t>
+          <t>40_3_sharpness0.85_contrast0.86_equalization6.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.09798725931072516</v>
+        <v>26.19395079845798</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9503060130310712</v>
+        <v>0.9189831400683597</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6.466372441390574</v>
+        <v>0.9056058675644143</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_sharpness0.098_gamma0.95_equalization6.5.jpg</t>
+          <t>41_C_brightness26.0_gamma0.92_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,16 +2208,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8339096323743359</v>
+        <v>7.161036984312144</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7404726013473898</v>
+        <v>0.5853760547965793</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>27.12788900036497</v>
+        <v>0.6231037099950525</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_sharpness0.83_gamma0.74_equalization27.0.jpg</t>
+          <t>42_1_brightness7.2_gamma0.59_sharpness0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6985612659124162</v>
+        <v>0.9215765981912027</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.02284286789549062</v>
+        <v>0.6825454130191093</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.117900396647043</v>
+        <v>12.25069738270546</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_gamma0.7_sharpness0.023_contrast1.1.jpg</t>
+          <t>43_I_contrast0.92_gamma0.68_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.0486874579411</v>
+        <v>0.08816121716284653</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8533945798211114</v>
+        <v>22.09306334926238</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>24.34159990951938</v>
+        <v>0.8232109693624269</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_B_gamma1.0_sharpness0.85_equalization24.0.jpg</t>
+          <t>44_I_sharpness0.088_brightness22.0_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>23.44991587975254</v>
+        <v>0.7816794815592515</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5563399294672523</v>
+        <v>0.1080306976284566</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.9620162549498029</v>
+        <v>13.3764880979391</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_brightness23.0_sharpness0.56_contrast0.96.jpg</t>
+          <t>45_1_gamma0.78_sharpness0.11_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,30 +2385,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.019879860580926</v>
+        <v>0.82882779630138</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.05878598202100627</v>
+        <v>24.36419289718785</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>24.80876187847628</v>
+        <v>0.5976732135590647</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_contrast1.0_sharpness0.059_equalization25.0.jpg</t>
+          <t>46_E_contrast0.83_brightness24.0_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8277217602450576</v>
+        <v>0.8629890712326775</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>21.87124060489066</v>
+        <v>0.2363354167287205</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8950103920446872</v>
+        <v>1.141147792578048</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_contrast0.83_brightness22.0_sharpness0.9.jpg</t>
+          <t>47_2_gamma0.86_sharpness0.24_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,30 +2469,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.145981630933689</v>
+        <v>22.2064800277986</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9373568699291186</v>
+        <v>0.8293176406303344</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9742971478635658</v>
+        <v>0.7007885485870704</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_brightness2.1_sharpness0.94_contrast0.97.jpg</t>
+          <t>48_9_brightness22.0_contrast0.83_sharpness0.7.jpg</t>
         </is>
       </c>
     </row>
